--- a/uservisit.xlsx
+++ b/uservisit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -70,7 +70,31 @@
     <t>4</t>
   </si>
   <si>
-    <t>2019-07-25 00:00:00</t>
+    <t>Кудлай</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>Иноватика</t>
+  </si>
+  <si>
+    <t>pol@ina.com</t>
+  </si>
+  <si>
+    <t>789654</t>
+  </si>
+  <si>
+    <t>15.11.1999</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>2019-08-03 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -402,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,8 +494,37 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
